--- a/curvas_de_propocao/Lula_art_prop.xlsx
+++ b/curvas_de_propocao/Lula_art_prop.xlsx
@@ -650,7 +650,7 @@
         <v>2008</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01243531242171282</v>
+        <v>0.01224808421892958</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>2009</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02382354597247244</v>
+        <v>0.02295925245102217</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>2010</v>
       </c>
       <c r="B29" t="n">
-        <v>0.007180985784053733</v>
+        <v>0.006687638305727606</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>2011</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01350277214554813</v>
+        <v>0.01220286026527489</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>2012</v>
       </c>
       <c r="B31" t="n">
-        <v>0.005681533833247271</v>
+        <v>0.004983300921486773</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>2013</v>
       </c>
       <c r="B32" t="n">
-        <v>0.005997057102106107</v>
+        <v>0.00509063310523934</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>2014</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1281357525507124</v>
+        <v>0.1055427070097013</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>2015</v>
       </c>
       <c r="B34" t="n">
-        <v>0.001502558667464174</v>
+        <v>0.001203528343403758</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>2017</v>
       </c>
       <c r="B35" t="n">
-        <v>0.03254659073382772</v>
+        <v>0.0247011413978444</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>2018</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01896598379015041</v>
+        <v>0.01399883028166849</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>2019</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02301201785931605</v>
+        <v>0.01653959284306157</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>2020</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01582420310373235</v>
+        <v>0.0110929224525856</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>2021</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02998290186038889</v>
+        <v>0.02053017644496501</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>2022</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03285304648857134</v>
+        <v>0.02200324228846279</v>
       </c>
     </row>
   </sheetData>

--- a/curvas_de_propocao/Lula_art_prop.xlsx
+++ b/curvas_de_propocao/Lula_art_prop.xlsx
@@ -650,7 +650,7 @@
         <v>2008</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01224808421892958</v>
+        <v>0.01119563616847274</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>2009</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02295925245102217</v>
+        <v>0.02098252335867843</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>2010</v>
       </c>
       <c r="B29" t="n">
-        <v>0.006687638305727606</v>
+        <v>0.006202810835827841</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>2011</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01220286026527489</v>
+        <v>0.01145822591534525</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>2012</v>
       </c>
       <c r="B31" t="n">
-        <v>0.004983300921486773</v>
+        <v>0.004745530448853886</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>2013</v>
       </c>
       <c r="B32" t="n">
-        <v>0.00509063310523934</v>
+        <v>0.004936501032822622</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>2014</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1055427070097013</v>
+        <v>0.1040372156438949</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>2015</v>
       </c>
       <c r="B34" t="n">
-        <v>0.001203528343403758</v>
+        <v>0.001204285821919369</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>2017</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0247011413978444</v>
+        <v>0.02550747555474603</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>2018</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01399883028166849</v>
+        <v>0.01471138206662291</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>2019</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01653959284306157</v>
+        <v>0.01765933930858506</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>2020</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0110929224525856</v>
+        <v>0.01202032419876672</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>2021</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02053017644496501</v>
+        <v>0.02255762385312031</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>2022</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02200324228846279</v>
+        <v>0.02449242329235346</v>
       </c>
     </row>
   </sheetData>
